--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0830569457265</v>
+        <v>23.76874</v>
       </c>
       <c r="H2">
-        <v>17.0830569457265</v>
+        <v>71.30622000000001</v>
       </c>
       <c r="I2">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834226</v>
       </c>
       <c r="J2">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834227</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N2">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P2">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q2">
-        <v>39.86928497527301</v>
+        <v>597.9132000976468</v>
       </c>
       <c r="R2">
-        <v>39.86928497527301</v>
+        <v>5381.218800878821</v>
       </c>
       <c r="S2">
-        <v>0.7130288130322796</v>
+        <v>0.9269797844110216</v>
       </c>
       <c r="T2">
-        <v>0.7130288130322796</v>
+        <v>0.9269797844110217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0830569457265</v>
+        <v>23.76874</v>
       </c>
       <c r="H3">
-        <v>17.0830569457265</v>
+        <v>71.30622000000001</v>
       </c>
       <c r="I3">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834226</v>
       </c>
       <c r="J3">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N3">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P3">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q3">
-        <v>10.53058546106501</v>
+        <v>14.97786358808667</v>
       </c>
       <c r="R3">
-        <v>10.53058546106501</v>
+        <v>134.80077229278</v>
       </c>
       <c r="S3">
-        <v>0.1883307126399436</v>
+        <v>0.02322105743367902</v>
       </c>
       <c r="T3">
-        <v>0.1883307126399436</v>
+        <v>0.02322105743367902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0830569457265</v>
+        <v>23.76874</v>
       </c>
       <c r="H4">
-        <v>17.0830569457265</v>
+        <v>71.30622000000001</v>
       </c>
       <c r="I4">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834226</v>
       </c>
       <c r="J4">
-        <v>0.9456685238943819</v>
+        <v>0.9555483638834227</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P4">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q4">
-        <v>2.477554966643598</v>
+        <v>3.449216550926667</v>
       </c>
       <c r="R4">
-        <v>2.477554966643598</v>
+        <v>31.04294895834</v>
       </c>
       <c r="S4">
-        <v>0.04430899822215878</v>
+        <v>0.005347522038721944</v>
       </c>
       <c r="T4">
-        <v>0.04430899822215878</v>
+        <v>0.005347522038721944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.732687469089103</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H5">
-        <v>0.732687469089103</v>
+        <v>2.250284</v>
       </c>
       <c r="I5">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270687</v>
       </c>
       <c r="J5">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270688</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N5">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P5">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q5">
-        <v>1.709982329025286</v>
+        <v>18.86896413200044</v>
       </c>
       <c r="R5">
-        <v>1.709982329025286</v>
+        <v>169.820677188004</v>
       </c>
       <c r="S5">
-        <v>0.03058160363616411</v>
+        <v>0.02925365805652818</v>
       </c>
       <c r="T5">
-        <v>0.03058160363616411</v>
+        <v>0.02925365805652818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.732687469089103</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H6">
-        <v>0.732687469089103</v>
+        <v>2.250284</v>
       </c>
       <c r="I6">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270687</v>
       </c>
       <c r="J6">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270688</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N6">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P6">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q6">
-        <v>0.4516538248398433</v>
+        <v>0.4726719041684443</v>
       </c>
       <c r="R6">
-        <v>0.4516538248398433</v>
+        <v>4.254047137515999</v>
       </c>
       <c r="S6">
-        <v>0.008077450870432554</v>
+        <v>0.0007328108825021007</v>
       </c>
       <c r="T6">
-        <v>0.008077450870432554</v>
+        <v>0.0007328108825021008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.732687469089103</v>
+        <v>0.7500946666666666</v>
       </c>
       <c r="H7">
-        <v>0.732687469089103</v>
+        <v>2.250284</v>
       </c>
       <c r="I7">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270687</v>
       </c>
       <c r="J7">
-        <v>0.04055945487805292</v>
+        <v>0.03015522621270688</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P7">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q7">
-        <v>0.1062616300938658</v>
+        <v>0.1088504876164444</v>
       </c>
       <c r="R7">
-        <v>0.1062616300938658</v>
+        <v>0.9796543885479998</v>
       </c>
       <c r="S7">
-        <v>0.00190040037145626</v>
+        <v>0.0001687572736765933</v>
       </c>
       <c r="T7">
-        <v>0.00190040037145626</v>
+        <v>0.0001687572736765933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.248785083719806</v>
+        <v>0.3556153333333333</v>
       </c>
       <c r="H8">
-        <v>0.248785083719806</v>
+        <v>1.066846</v>
       </c>
       <c r="I8">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="J8">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.33384956228497</v>
+        <v>25.15544366666667</v>
       </c>
       <c r="N8">
-        <v>2.33384956228497</v>
+        <v>75.466331</v>
       </c>
       <c r="O8">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="P8">
-        <v>0.7539944441588657</v>
+        <v>0.9701024243751556</v>
       </c>
       <c r="Q8">
-        <v>0.5806269587424989</v>
+        <v>8.945661484669555</v>
       </c>
       <c r="R8">
-        <v>0.5806269587424989</v>
+        <v>80.51095336202599</v>
       </c>
       <c r="S8">
-        <v>0.01038402749042206</v>
+        <v>0.01386898190760582</v>
       </c>
       <c r="T8">
-        <v>0.01038402749042206</v>
+        <v>0.01386898190760582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.248785083719806</v>
+        <v>0.3556153333333333</v>
       </c>
       <c r="H9">
-        <v>0.248785083719806</v>
+        <v>1.066846</v>
       </c>
       <c r="I9">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="J9">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.61643448795617</v>
+        <v>0.6301496666666666</v>
       </c>
       <c r="N9">
-        <v>0.61643448795617</v>
+        <v>1.890449</v>
       </c>
       <c r="O9">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="P9">
-        <v>0.1991508735686518</v>
+        <v>0.02430128951224074</v>
       </c>
       <c r="Q9">
-        <v>0.1533597056939515</v>
+        <v>0.2240908837615555</v>
       </c>
       <c r="R9">
-        <v>0.1533597056939515</v>
+        <v>2.016817953854</v>
       </c>
       <c r="S9">
-        <v>0.00274271005827561</v>
+        <v>0.0003474211960596246</v>
       </c>
       <c r="T9">
-        <v>0.00274271005827561</v>
+        <v>0.0003474211960596246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.248785083719806</v>
+        <v>0.3556153333333333</v>
       </c>
       <c r="H10">
-        <v>0.248785083719806</v>
+        <v>1.066846</v>
       </c>
       <c r="I10">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="J10">
-        <v>0.01377202122756512</v>
+        <v>0.01429640990387057</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.145029954212228</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N10">
-        <v>0.145029954212228</v>
+        <v>0.435347</v>
       </c>
       <c r="O10">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="P10">
-        <v>0.04685468227248249</v>
+        <v>0.005596286112603657</v>
       </c>
       <c r="Q10">
-        <v>0.03608128930056877</v>
+        <v>0.05160535617355556</v>
       </c>
       <c r="R10">
-        <v>0.03608128930056877</v>
+        <v>0.4644482055619999</v>
       </c>
       <c r="S10">
-        <v>0.000645283678867448</v>
+        <v>8.000680020512026E-05</v>
       </c>
       <c r="T10">
-        <v>0.000645283678867448</v>
+        <v>8.000680020512026E-05</v>
       </c>
     </row>
   </sheetData>
